--- a/public/data/soil/soil_table_democratic_republic_of_the_congo.xlsx
+++ b/public/data/soil/soil_table_democratic_republic_of_the_congo.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1409,28 +1409,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>30245.1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1852.1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1038.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.702</v>
+        <v>174.307</v>
       </c>
       <c r="I2" t="n">
-        <v>1.907</v>
+        <v>0.34</v>
       </c>
       <c r="J2" t="n">
-        <v>5.57</v>
+        <v>1.145</v>
       </c>
       <c r="K2" t="n">
-        <v>2.111</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -1444,28 +1444,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>1962.8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>465.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.66</v>
+        <v>13.471</v>
       </c>
       <c r="I3" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1479,25 +1479,25 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>23510.9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>411079.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.401</v>
+        <v>8.934</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>74.932</v>
+        <v>89.322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>31469.8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10463.8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>54.867</v>
+        <v>96.326</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>27.079</v>
+        <v>21.112</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>52335</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>750.4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>115560.1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1504.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>58.383</v>
+        <v>103.503</v>
       </c>
       <c r="I6" t="n">
-        <v>2.281</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>79.765</v>
+        <v>121.694</v>
       </c>
       <c r="K6" t="n">
-        <v>6.329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1584,25 +1584,25 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.791</v>
+        <v>6.268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.325</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1619,28 +1619,28 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>36008.3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1889.3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>47.4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>123.091</v>
+        <v>207.45</v>
       </c>
       <c r="I8" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.701</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1654,19 +1654,19 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>752.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1155.8</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.73</v>
+        <v>9.905</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1689,25 +1689,25 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>158.9</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.099</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.877</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1724,25 +1724,25 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>114606.3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>57726.8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>191.563</v>
+        <v>273.235</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.612</v>
+        <v>32.363</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>22225.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>124.336</v>
+        <v>277.27</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>1467.8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.787</v>
+        <v>5.125</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>51724.4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>150.963</v>
+        <v>270.448</v>
       </c>
       <c r="I14" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1864,25 +1864,25 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>34106.8</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>70.6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>115.222</v>
+        <v>333.438</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1899,28 +1899,28 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>45509</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>220.4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1635.8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>51.846</v>
+        <v>127.741</v>
       </c>
       <c r="I16" t="n">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.835</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1934,7 +1934,7 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>21752.4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>62.323</v>
+        <v>226.139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1969,28 +1969,28 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>46609</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>596.3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4006.7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>259.3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>76.43</v>
+        <v>104.854</v>
       </c>
       <c r="I18" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.149</v>
+        <v>7.018</v>
       </c>
       <c r="K18" t="n">
-        <v>0.994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,25 +2004,25 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>22131.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>407.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.936</v>
+        <v>94.532</v>
       </c>
       <c r="I19" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.438</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2039,19 +2039,19 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>9657.6</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>627.7</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>43.061</v>
+        <v>62.597</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2074,28 +2074,28 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>211606.4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>185189</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>5327.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>356.264</v>
+        <v>342.46</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>358.79</v>
+        <v>379.7</v>
       </c>
       <c r="K21" t="n">
-        <v>13.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2109,28 +2109,28 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>107145.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>232791.8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56755.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.812</v>
+        <v>202.43</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>320.974</v>
+        <v>359.136</v>
       </c>
       <c r="K22" t="n">
-        <v>115.248</v>
+        <v>93.263</v>
       </c>
     </row>
     <row r="23">
@@ -2144,25 +2144,25 @@
         <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>200130.8</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>42497.8</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>175.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>302.764</v>
+        <v>316.476</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.575</v>
+        <v>54.286</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1788.7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>253.6</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>5506.6</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7660.3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2409.3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2249,25 +2249,25 @@
         <v>57</v>
       </c>
       <c r="D26" t="n">
-        <v>18001.7</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27263.7</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2217.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.938</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>58</v>
       </c>
       <c r="D27" t="n">
-        <v>256828.2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>67672.8</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>59019.7</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>259.767</v>
+        <v>287.525</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>125.794</v>
+        <v>157.799</v>
       </c>
       <c r="K27" t="n">
-        <v>124.623</v>
+        <v>115.398</v>
       </c>
     </row>
     <row r="28">
@@ -2319,28 +2319,28 @@
         <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>320840</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.9</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>131066.8</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>21207.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>483.228</v>
+        <v>532.554</v>
       </c>
       <c r="I28" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>247.51</v>
+        <v>254.157</v>
       </c>
       <c r="K28" t="n">
-        <v>41.432</v>
+        <v>20.113</v>
       </c>
     </row>
     <row r="29">
@@ -2354,28 +2354,28 @@
         <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>436884.2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>49360.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3984.7</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>275.235</v>
+        <v>308.16</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.189</v>
+        <v>59.06</v>
       </c>
       <c r="K29" t="n">
-        <v>5.833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2389,28 +2389,28 @@
         <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>204785.5</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1208.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>100158.8</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>15832.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>515.779</v>
+        <v>560.658</v>
       </c>
       <c r="I30" t="n">
-        <v>1.911</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>211.091</v>
+        <v>274.997</v>
       </c>
       <c r="K30" t="n">
-        <v>32.513</v>
+        <v>21.856</v>
       </c>
     </row>
     <row r="31">
@@ -2424,28 +2424,28 @@
         <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>595164.3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8652.7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>54.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1088.209</v>
+        <v>1036.165</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>9.611</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2459,25 +2459,25 @@
         <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>658817.8</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>108828.3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>830.856</v>
+        <v>943.567</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>109.775</v>
+        <v>98.066</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2494,19 +2494,19 @@
         <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>1961</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1631.8</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.703</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2529,25 +2529,25 @@
         <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>328979.3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2744.2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>393.169</v>
+        <v>398.509</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.467</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2564,28 +2564,28 @@
         <v>67</v>
       </c>
       <c r="D35" t="n">
-        <v>223142.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>629.7</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>110294.9</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>10761.6</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>660.319</v>
+        <v>722.157</v>
       </c>
       <c r="I35" t="n">
-        <v>2.044</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>273.792</v>
+        <v>338.647</v>
       </c>
       <c r="K35" t="n">
-        <v>41.138</v>
+        <v>23.359</v>
       </c>
     </row>
     <row r="36">
@@ -2599,13 +2599,13 @@
         <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>192.1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3620.1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.043</v>
+        <v>10.85</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2634,25 +2634,25 @@
         <v>70</v>
       </c>
       <c r="D37" t="n">
-        <v>94310.1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>352573.4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>52.805</v>
+        <v>47.322</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.989</v>
+        <v>126.749</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2669,25 +2669,25 @@
         <v>71</v>
       </c>
       <c r="D38" t="n">
-        <v>989.3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1693.3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.113</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>6.069</v>
+        <v>9.138</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2704,28 +2704,28 @@
         <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>33177.4</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.3</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>297260.8</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3011.3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>47.866</v>
+        <v>2.451</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>357.959</v>
+        <v>386.386</v>
       </c>
       <c r="K39" t="n">
-        <v>1.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2739,19 +2739,19 @@
         <v>73</v>
       </c>
       <c r="D40" t="n">
-        <v>1769.1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>249.2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>5.374</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2774,25 +2774,25 @@
         <v>74</v>
       </c>
       <c r="D41" t="n">
-        <v>73118.2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>63675.6</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>63.819</v>
+        <v>65.777</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.223</v>
+        <v>55.497</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2809,25 +2809,25 @@
         <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>51455.8</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3834.2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>131.147</v>
+        <v>212.379</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.821</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2844,25 +2844,25 @@
         <v>76</v>
       </c>
       <c r="D43" t="n">
-        <v>58284.8</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1062.9</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>279.488</v>
+        <v>351.34</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.603</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="D44" t="n">
-        <v>3092.5</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>11.35</v>
+        <v>13.893</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2914,28 +2914,28 @@
         <v>78</v>
       </c>
       <c r="D45" t="n">
-        <v>246838.6</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>5640.6</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>132966.9</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10372.5</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>176.939</v>
+        <v>204.483</v>
       </c>
       <c r="I45" t="n">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>69.55</v>
+        <v>83.238</v>
       </c>
       <c r="K45" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2949,28 +2949,28 @@
         <v>79</v>
       </c>
       <c r="D46" t="n">
-        <v>3495.1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>156.2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2942.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>497.7</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.696</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.999</v>
+        <v>11.61</v>
       </c>
       <c r="K46" t="n">
-        <v>1.258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3019,28 +3019,28 @@
         <v>82</v>
       </c>
       <c r="D48" t="n">
-        <v>21040</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>298.8</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>267039.4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>8066.4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>24.775</v>
+        <v>13.237</v>
       </c>
       <c r="I48" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>408.637</v>
+        <v>427.05</v>
       </c>
       <c r="K48" t="n">
-        <v>4.648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3054,25 +3054,25 @@
         <v>83</v>
       </c>
       <c r="D49" t="n">
-        <v>325.2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>6324.5</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.737</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.078</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3089,16 +3089,16 @@
         <v>84</v>
       </c>
       <c r="D50" t="n">
-        <v>41.3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4518.8</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>929.5</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3124,28 +3124,28 @@
         <v>85</v>
       </c>
       <c r="D51" t="n">
-        <v>74420.4</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>78164.7</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>38111</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>57313.8</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>206.524</v>
+        <v>270.283</v>
       </c>
       <c r="I51" t="n">
-        <v>214.176</v>
+        <v>162.803</v>
       </c>
       <c r="J51" t="n">
-        <v>81.233</v>
+        <v>97.836</v>
       </c>
       <c r="K51" t="n">
-        <v>158.773</v>
+        <v>154.388</v>
       </c>
     </row>
     <row r="52">
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1637.2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.483</v>
+        <v>9.86</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3194,28 +3194,28 @@
         <v>87</v>
       </c>
       <c r="D53" t="n">
-        <v>55038.8</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>20233</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>43928.4</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>60880</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>153.613</v>
+        <v>179.202</v>
       </c>
       <c r="I53" t="n">
-        <v>65.772</v>
+        <v>67.164</v>
       </c>
       <c r="J53" t="n">
-        <v>103.101</v>
+        <v>78.83</v>
       </c>
       <c r="K53" t="n">
-        <v>154.742</v>
+        <v>136.945</v>
       </c>
     </row>
     <row r="54">
@@ -3229,28 +3229,28 @@
         <v>88</v>
       </c>
       <c r="D54" t="n">
-        <v>43673</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>22181.7</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>116889.6</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>41302.5</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>61.639</v>
+        <v>35.43</v>
       </c>
       <c r="I54" t="n">
-        <v>40.757</v>
+        <v>47.81</v>
       </c>
       <c r="J54" t="n">
-        <v>179.801</v>
+        <v>206.409</v>
       </c>
       <c r="K54" t="n">
-        <v>63.417</v>
+        <v>74.966</v>
       </c>
     </row>
     <row r="55">
@@ -3264,16 +3264,16 @@
         <v>89</v>
       </c>
       <c r="D55" t="n">
-        <v>3193.8</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>4583.6</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>3538.9</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3299,25 +3299,25 @@
         <v>90</v>
       </c>
       <c r="D56" t="n">
-        <v>47707.8</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>504.5</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>316.4</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>134.768</v>
+        <v>214.103</v>
       </c>
       <c r="I56" t="n">
-        <v>2.502</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>93</v>
       </c>
       <c r="D58" t="n">
-        <v>180000.6</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>805.9</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -3381,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>600.7</v>
+        <v>589.379</v>
       </c>
       <c r="I58" t="n">
-        <v>3.574</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3404,19 +3404,19 @@
         <v>94</v>
       </c>
       <c r="D59" t="n">
-        <v>244351.6</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>557.126</v>
+        <v>489.745</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>95</v>
       </c>
       <c r="D60" t="n">
-        <v>136740.9</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1240.6</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>281.689</v>
+        <v>315.162</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.481</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="D61" t="n">
-        <v>30789.5</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>29.758</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>97</v>
       </c>
       <c r="D62" t="n">
-        <v>304277.9</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>767.486</v>
+        <v>767.789</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="D63" t="n">
-        <v>369962.5</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>858.256</v>
+        <v>915.62</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>99</v>
       </c>
       <c r="D64" t="n">
-        <v>1476.3</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3614,25 +3614,25 @@
         <v>101</v>
       </c>
       <c r="D65" t="n">
-        <v>83241.4</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>5388.5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>134.831</v>
+        <v>154.973</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3649,25 +3649,25 @@
         <v>102</v>
       </c>
       <c r="D66" t="n">
-        <v>88880</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>826.8</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>6.885</v>
+        <v>24.287</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>745.2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>12.925</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3719,28 +3719,28 @@
         <v>104</v>
       </c>
       <c r="D68" t="n">
-        <v>74641.2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>7659.9</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>80.3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>184.634</v>
+        <v>207.704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>22.539</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3754,19 +3754,19 @@
         <v>105</v>
       </c>
       <c r="D69" t="n">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2117.2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1.791</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3789,25 +3789,25 @@
         <v>106</v>
       </c>
       <c r="D70" t="n">
-        <v>72296.7</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>4038.3</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>154.892</v>
+        <v>169.418</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>14.967</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>107</v>
       </c>
       <c r="D71" t="n">
-        <v>646.9</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1.282</v>
+        <v>17.154</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3859,25 +3859,25 @@
         <v>108</v>
       </c>
       <c r="D72" t="n">
-        <v>73313.3</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>21333.6</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>142.871</v>
+        <v>208.122</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>32.199</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3894,19 +3894,19 @@
         <v>109</v>
       </c>
       <c r="D73" t="n">
-        <v>1500.9</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>460.4</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3929,25 +3929,25 @@
         <v>111</v>
       </c>
       <c r="D74" t="n">
-        <v>46285.5</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>108.4</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>64.554</v>
+        <v>158.545</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3964,25 +3964,25 @@
         <v>112</v>
       </c>
       <c r="D75" t="n">
-        <v>242439.6</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>12450.2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>481.186</v>
+        <v>541.738</v>
       </c>
       <c r="I75" t="n">
-        <v>0.202</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>29.006</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3999,19 +3999,19 @@
         <v>113</v>
       </c>
       <c r="D76" t="n">
-        <v>5047.8</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>156.6</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>14.628</v>
+        <v>15.514</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -4034,25 +4034,25 @@
         <v>114</v>
       </c>
       <c r="D77" t="n">
-        <v>578186.7</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>9871.8</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1599.566</v>
+        <v>1681.695</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>26.472</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4069,25 +4069,25 @@
         <v>115</v>
       </c>
       <c r="D78" t="n">
-        <v>126644.8</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>151.9</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>380.495</v>
+        <v>426.788</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>116</v>
       </c>
       <c r="D79" t="n">
-        <v>942.4</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -4139,25 +4139,25 @@
         <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>245396.8</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>2361.8</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>113.8</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>562.36</v>
+        <v>645.3</v>
       </c>
       <c r="I80" t="n">
-        <v>6.915</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4174,25 +4174,25 @@
         <v>118</v>
       </c>
       <c r="D81" t="n">
-        <v>2692.4</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>2068.9</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.689</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.135</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4209,28 +4209,28 @@
         <v>119</v>
       </c>
       <c r="D82" t="n">
-        <v>255519.5</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>338.2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>66445</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>702.8</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>164.502</v>
+        <v>182.951</v>
       </c>
       <c r="I82" t="n">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>41.065</v>
+        <v>15.524</v>
       </c>
       <c r="K82" t="n">
-        <v>1.543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4244,28 +4244,28 @@
         <v>121</v>
       </c>
       <c r="D83" t="n">
-        <v>1671.8</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1104.6</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>4.506</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.475</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4285,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1300.1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>4842</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.524</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>2.563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4314,19 +4314,19 @@
         <v>123</v>
       </c>
       <c r="D85" t="n">
-        <v>2965.9</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>51.9</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>3.784</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4349,25 +4349,25 @@
         <v>124</v>
       </c>
       <c r="D86" t="n">
-        <v>132084.3</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>704.2</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>127.337</v>
+        <v>114.183</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>125</v>
       </c>
       <c r="D87" t="n">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4419,25 +4419,25 @@
         <v>126</v>
       </c>
       <c r="D88" t="n">
-        <v>72793.8</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>17037.5</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>48.885</v>
+        <v>52.104</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>6.337</v>
+        <v>3.084</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4454,28 +4454,28 @@
         <v>127</v>
       </c>
       <c r="D89" t="n">
-        <v>63406.5</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>154.7</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>33452.6</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>4964.5</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>112.555</v>
+        <v>114.877</v>
       </c>
       <c r="I89" t="n">
-        <v>0.633</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>61.876</v>
+        <v>73.048</v>
       </c>
       <c r="K89" t="n">
-        <v>7.436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4489,19 +4489,19 @@
         <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>698.2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.438</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4524,28 +4524,28 @@
         <v>129</v>
       </c>
       <c r="D91" t="n">
-        <v>66982.3</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>24556.8</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1221</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>77.123</v>
+        <v>91.693</v>
       </c>
       <c r="I91" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>50.699</v>
+        <v>73.932</v>
       </c>
       <c r="K91" t="n">
-        <v>1.551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4559,25 +4559,25 @@
         <v>130</v>
       </c>
       <c r="D92" t="n">
-        <v>220399.6</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>11218</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>209.194</v>
+        <v>217.34</v>
       </c>
       <c r="I92" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>5.177</v>
+        <v>2.146</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -4594,16 +4594,16 @@
         <v>131</v>
       </c>
       <c r="D93" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>585.2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1901.1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.143</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.253</v>
+        <v>8.727</v>
       </c>
     </row>
     <row r="94">
@@ -4629,28 +4629,28 @@
         <v>132</v>
       </c>
       <c r="D94" t="n">
-        <v>204437.4</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>41992.9</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1411.3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>260.651</v>
+        <v>256.355</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>88.244</v>
+        <v>100.502</v>
       </c>
       <c r="K94" t="n">
-        <v>3.536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4664,19 +4664,19 @@
         <v>133</v>
       </c>
       <c r="D95" t="n">
-        <v>3193.1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>770.9</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>3.052</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4699,28 +4699,28 @@
         <v>134</v>
       </c>
       <c r="D96" t="n">
-        <v>34973.9</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>87.1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>46283.2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>16147.8</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>26.886</v>
+        <v>33.898</v>
       </c>
       <c r="I96" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>40.311</v>
+        <v>52.071</v>
       </c>
       <c r="K96" t="n">
-        <v>32.087</v>
+        <v>26.859</v>
       </c>
     </row>
     <row r="97">
@@ -4734,19 +4734,19 @@
         <v>135</v>
       </c>
       <c r="D97" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="98">
@@ -4769,28 +4769,28 @@
         <v>136</v>
       </c>
       <c r="D98" t="n">
-        <v>72396.1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>23988.5</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>6164.1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>144.627</v>
+        <v>150.173</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>56.088</v>
+        <v>43.18</v>
       </c>
       <c r="K98" t="n">
-        <v>16.746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4804,28 +4804,28 @@
         <v>137</v>
       </c>
       <c r="D99" t="n">
-        <v>104634.8</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>69993.1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>3957</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>98.631</v>
+        <v>111.081</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>85.513</v>
+        <v>85.732</v>
       </c>
       <c r="K99" t="n">
-        <v>5.545</v>
+        <v>8.727</v>
       </c>
     </row>
     <row r="100">
@@ -4839,28 +4839,28 @@
         <v>138</v>
       </c>
       <c r="D100" t="n">
-        <v>110744.5</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>479.4</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1533.9</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>135.5</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>225.513</v>
+        <v>202.155</v>
       </c>
       <c r="I100" t="n">
-        <v>1.687</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3.925</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4874,7 +4874,7 @@
         <v>139</v>
       </c>
       <c r="D101" t="n">
-        <v>733.2</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4909,25 +4909,25 @@
         <v>141</v>
       </c>
       <c r="D102" t="n">
-        <v>353676.8</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>43997.3</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>227.764</v>
+        <v>270.928</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>43.826</v>
+        <v>7.322</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4944,25 +4944,25 @@
         <v>142</v>
       </c>
       <c r="D103" t="n">
-        <v>368468.5</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>4045.6</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>316.38</v>
+        <v>339.542</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>5.846</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -4979,25 +4979,25 @@
         <v>143</v>
       </c>
       <c r="D104" t="n">
-        <v>1953.9</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>363.1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>2.988</v>
+        <v>8.489</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.832</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -5014,25 +5014,25 @@
         <v>144</v>
       </c>
       <c r="D105" t="n">
-        <v>429234.3</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>56563.3</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>473.44</v>
+        <v>476.757</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>63.806</v>
+        <v>44.305</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>145</v>
       </c>
       <c r="D106" t="n">
-        <v>717.8</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.472</v>
+        <v>6.807</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -5084,25 +5084,25 @@
         <v>146</v>
       </c>
       <c r="D107" t="n">
-        <v>347689.9</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>31902.3</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>482.529</v>
+        <v>514.387</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>35.477</v>
+        <v>0.37</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -5119,19 +5119,19 @@
         <v>147</v>
       </c>
       <c r="D108" t="n">
-        <v>1884.1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>514.3</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3.985</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -5154,25 +5154,25 @@
         <v>148</v>
       </c>
       <c r="D109" t="n">
-        <v>126563.2</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>12813.2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>146.601</v>
+        <v>155.93</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>9.724</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -5189,28 +5189,28 @@
         <v>150</v>
       </c>
       <c r="D110" t="n">
-        <v>365675.9</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>35032.5</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>122.517</v>
+        <v>153.166</v>
       </c>
       <c r="I110" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>22.877</v>
+        <v>5.016</v>
       </c>
       <c r="K110" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5224,25 +5224,25 @@
         <v>151</v>
       </c>
       <c r="D111" t="n">
-        <v>8091.1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2029.6</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>23.602</v>
+        <v>16.715</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.532</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -5259,25 +5259,25 @@
         <v>152</v>
       </c>
       <c r="D112" t="n">
-        <v>328695.5</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>17269.1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>666.86</v>
+        <v>681.745</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>38.71</v>
+        <v>1.589</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>153</v>
       </c>
       <c r="D113" t="n">
-        <v>1152.1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -5329,13 +5329,13 @@
         <v>154</v>
       </c>
       <c r="D114" t="n">
-        <v>140.7</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -5364,28 +5364,28 @@
         <v>155</v>
       </c>
       <c r="D115" t="n">
-        <v>224638</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>170953.6</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>344.945</v>
+        <v>376.193</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>197.548</v>
+        <v>166.794</v>
       </c>
       <c r="K115" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5399,7 +5399,7 @@
         <v>156</v>
       </c>
       <c r="D116" t="n">
-        <v>332.3</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.684</v>
+        <v>4.618</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -5434,28 +5434,28 @@
         <v>157</v>
       </c>
       <c r="D117" t="n">
-        <v>360608.5</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>118543.5</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>734.289</v>
+        <v>849.21</v>
       </c>
       <c r="I117" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>120.651</v>
+        <v>72.434</v>
       </c>
       <c r="K117" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5469,25 +5469,25 @@
         <v>158</v>
       </c>
       <c r="D118" t="n">
-        <v>871.6</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1243.9</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2.524</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.863</v>
+        <v>5.021</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -5504,13 +5504,13 @@
         <v>159</v>
       </c>
       <c r="D119" t="n">
-        <v>4188.5</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>2581</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>160</v>
       </c>
       <c r="D120" t="n">
-        <v>642.8</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.837</v>
+        <v>14.391</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5574,25 +5574,25 @@
         <v>161</v>
       </c>
       <c r="D121" t="n">
-        <v>313563.6</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>30818.4</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>523.367</v>
+        <v>586.549</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>48.032</v>
+        <v>1.675</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>162</v>
       </c>
       <c r="D122" t="n">
-        <v>795.2</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.274</v>
+        <v>6.322</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -5644,25 +5644,25 @@
         <v>164</v>
       </c>
       <c r="D123" t="n">
-        <v>386267.4</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>183.8</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>549.475</v>
+        <v>564.345</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>165</v>
       </c>
       <c r="D124" t="n">
-        <v>3709.9</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>166</v>
       </c>
       <c r="D125" t="n">
-        <v>40765.5</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>148.158</v>
+        <v>112.823</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -5749,25 +5749,25 @@
         <v>167</v>
       </c>
       <c r="D126" t="n">
-        <v>532362.1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>3111.3</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>555.3</v>
+        <v>556.199</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>3.466</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>168</v>
       </c>
       <c r="D127" t="n">
-        <v>940.3</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>2.973</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -5819,25 +5819,25 @@
         <v>169</v>
       </c>
       <c r="D128" t="n">
-        <v>349041.9</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>2524</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>756.037</v>
+        <v>704.316</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>5.653</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5854,19 +5854,19 @@
         <v>170</v>
       </c>
       <c r="D129" t="n">
-        <v>9167.4</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>518.1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>4.031</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -5889,25 +5889,25 @@
         <v>171</v>
       </c>
       <c r="D130" t="n">
-        <v>228708.8</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>5621.1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>365.172</v>
+        <v>359.11</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>9.446</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>172</v>
       </c>
       <c r="D131" t="n">
-        <v>3473.7</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -5959,25 +5959,25 @@
         <v>174</v>
       </c>
       <c r="D132" t="n">
-        <v>465112</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>29456.5</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>665.311</v>
+        <v>712.817</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>35.388</v>
+        <v>2.337</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -5994,25 +5994,25 @@
         <v>175</v>
       </c>
       <c r="D133" t="n">
-        <v>466428.6</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1380.9</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>424.319</v>
+        <v>444.642</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -6029,19 +6029,19 @@
         <v>176</v>
       </c>
       <c r="D134" t="n">
-        <v>326.2</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>268.3</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.429</v>
+        <v>12.616</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -6064,25 +6064,25 @@
         <v>177</v>
       </c>
       <c r="D135" t="n">
-        <v>1032.4</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>6355.9</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.309</v>
+        <v>8.367</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -6099,28 +6099,28 @@
         <v>178</v>
       </c>
       <c r="D136" t="n">
-        <v>111353.6</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>114.3</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>158811.7</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>35005.4</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>203.317</v>
+        <v>236.389</v>
       </c>
       <c r="I136" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>305.882</v>
+        <v>372.492</v>
       </c>
       <c r="K136" t="n">
-        <v>34.73</v>
+        <v>21.746</v>
       </c>
     </row>
     <row r="137">
@@ -6134,28 +6134,28 @@
         <v>179</v>
       </c>
       <c r="D137" t="n">
-        <v>240638.6</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>98713.5</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1023.3</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>238.755</v>
+        <v>263.546</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>104.131</v>
+        <v>125.303</v>
       </c>
       <c r="K137" t="n">
-        <v>1.535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6169,25 +6169,25 @@
         <v>180</v>
       </c>
       <c r="D138" t="n">
-        <v>513762.3</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>33802.4</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>535.312</v>
+        <v>620.555</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>31.135</v>
+        <v>2.275</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -6204,25 +6204,25 @@
         <v>182</v>
       </c>
       <c r="D139" t="n">
-        <v>66226.3</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>645.4</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>96.038</v>
+        <v>96.339</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.201</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -6239,19 +6239,19 @@
         <v>183</v>
       </c>
       <c r="D140" t="n">
-        <v>1003.2</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>97.8</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -6274,28 +6274,28 @@
         <v>184</v>
       </c>
       <c r="D141" t="n">
-        <v>113446.8</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>553.4</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>417.5</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>59.9</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>188.861</v>
+        <v>286.348</v>
       </c>
       <c r="I141" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -6309,7 +6309,7 @@
         <v>185</v>
       </c>
       <c r="D142" t="n">
-        <v>1855.8</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>4.9</v>
+        <v>1.951</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -6344,25 +6344,25 @@
         <v>186</v>
       </c>
       <c r="D143" t="n">
-        <v>17720.3</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>105.4</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>34.301</v>
+        <v>124.558</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0.087</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -6379,28 +6379,28 @@
         <v>187</v>
       </c>
       <c r="D144" t="n">
-        <v>252582.7</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1400.1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>4101</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>420.5</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>153.275</v>
+        <v>185.389</v>
       </c>
       <c r="I144" t="n">
-        <v>1.391</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>3.029</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6414,28 +6414,28 @@
         <v>188</v>
       </c>
       <c r="D145" t="n">
-        <v>230345.7</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1264.2</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>7627.6</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1342.2</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>88.385</v>
+        <v>96.799</v>
       </c>
       <c r="I145" t="n">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>4.948</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6449,28 +6449,28 @@
         <v>189</v>
       </c>
       <c r="D146" t="n">
-        <v>117741.2</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>12974.5</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>757.4</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>654.3</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>83.552</v>
+        <v>114.131</v>
       </c>
       <c r="I146" t="n">
-        <v>13.146</v>
+        <v>7.641</v>
       </c>
       <c r="J146" t="n">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6484,28 +6484,28 @@
         <v>190</v>
       </c>
       <c r="D147" t="n">
-        <v>1043.4</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>321.1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>67.9</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>99.7</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>4.247</v>
+        <v>6.174</v>
       </c>
       <c r="I147" t="n">
-        <v>1.208</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6519,25 +6519,25 @@
         <v>191</v>
       </c>
       <c r="D148" t="n">
-        <v>48046.1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1257.4</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>100.852</v>
+        <v>231.867</v>
       </c>
       <c r="I148" t="n">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.269</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -6554,25 +6554,25 @@
         <v>192</v>
       </c>
       <c r="D149" t="n">
-        <v>26018.9</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>268.5</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>2672.3</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>69.904</v>
+        <v>58.996</v>
       </c>
       <c r="I149" t="n">
-        <v>1.048</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>9.778</v>
+        <v>10.348</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -6589,25 +6589,25 @@
         <v>194</v>
       </c>
       <c r="D150" t="n">
-        <v>283911.1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>19933.5</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>3196.9</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>308.789</v>
+        <v>410.39</v>
       </c>
       <c r="I150" t="n">
-        <v>66.458</v>
+        <v>32.611</v>
       </c>
       <c r="J150" t="n">
-        <v>0.884</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>195</v>
       </c>
       <c r="D151" t="n">
-        <v>47992.1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>9310.4</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>72.301</v>
+        <v>151.358</v>
       </c>
       <c r="I151" t="n">
-        <v>24.01</v>
+        <v>5.311</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -6659,10 +6659,10 @@
         <v>196</v>
       </c>
       <c r="D152" t="n">
-        <v>871.9</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -6671,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>1.938</v>
+        <v>9.19</v>
       </c>
       <c r="I152" t="n">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6694,28 +6694,28 @@
         <v>197</v>
       </c>
       <c r="D153" t="n">
-        <v>231671.5</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>51943.7</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>240.2</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>813.6</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>334.883</v>
+        <v>413.578</v>
       </c>
       <c r="I153" t="n">
-        <v>179.822</v>
+        <v>159.586</v>
       </c>
       <c r="J153" t="n">
-        <v>0.851</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>2.834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6729,10 +6729,10 @@
         <v>198</v>
       </c>
       <c r="D154" t="n">
-        <v>5494.5</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>384.8</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -6741,10 +6741,10 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>11.453</v>
+        <v>15.96</v>
       </c>
       <c r="I154" t="n">
-        <v>2.322</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6764,28 +6764,28 @@
         <v>199</v>
       </c>
       <c r="D155" t="n">
-        <v>300045.5</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>7486.2</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>2584.1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>165.959</v>
+        <v>207.73</v>
       </c>
       <c r="I155" t="n">
-        <v>12.804</v>
+        <v>10.192</v>
       </c>
       <c r="J155" t="n">
-        <v>2.791</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6799,22 +6799,22 @@
         <v>200</v>
       </c>
       <c r="D156" t="n">
-        <v>4769.9</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>851.5</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>80.3</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>164.5</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1.979</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>201</v>
       </c>
       <c r="D157" t="n">
-        <v>26820.4</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>93.17</v>
+        <v>164.358</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>202</v>
       </c>
       <c r="D158" t="n">
-        <v>204.5</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>1.638</v>
+        <v>9.444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -6904,10 +6904,10 @@
         <v>203</v>
       </c>
       <c r="D159" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>125.5</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6916,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0.528</v>
+        <v>3.482</v>
       </c>
       <c r="I159" t="n">
-        <v>1.041</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6939,10 +6939,10 @@
         <v>204</v>
       </c>
       <c r="D160" t="n">
-        <v>58018.7</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>3773.7</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6951,10 +6951,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>216.665</v>
+        <v>340.015</v>
       </c>
       <c r="I160" t="n">
-        <v>16.433</v>
+        <v>8.461</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>205</v>
       </c>
       <c r="D161" t="n">
-        <v>10919.9</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>50.206</v>
+        <v>101.924</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>206</v>
       </c>
       <c r="D162" t="n">
-        <v>524.4</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3.092</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -7044,25 +7044,25 @@
         <v>208</v>
       </c>
       <c r="D163" t="n">
-        <v>86460.8</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1345.1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>309.981</v>
+        <v>549.823</v>
       </c>
       <c r="I163" t="n">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7079,28 +7079,28 @@
         <v>209</v>
       </c>
       <c r="D164" t="n">
-        <v>142808.5</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>33532.1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>3611.6</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>17964.9</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>417.848</v>
+        <v>518.478</v>
       </c>
       <c r="I164" t="n">
-        <v>82.034</v>
+        <v>66.361</v>
       </c>
       <c r="J164" t="n">
-        <v>8.553</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>39.194</v>
+        <v>3.183</v>
       </c>
     </row>
     <row r="165">
@@ -7114,25 +7114,25 @@
         <v>210</v>
       </c>
       <c r="D165" t="n">
-        <v>732.1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>234.9</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1448.6</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>67.2</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>1.003</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.502</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -7149,28 +7149,28 @@
         <v>211</v>
       </c>
       <c r="D166" t="n">
-        <v>103873.9</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>4721.2</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>8715.7</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>5004.8</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>334.699</v>
+        <v>515.047</v>
       </c>
       <c r="I166" t="n">
-        <v>22.484</v>
+        <v>13.496</v>
       </c>
       <c r="J166" t="n">
-        <v>32.792</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>19.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -7184,25 +7184,25 @@
         <v>212</v>
       </c>
       <c r="D167" t="n">
-        <v>935.1</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>96.6</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>959.1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>2.756</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.354</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -7219,16 +7219,16 @@
         <v>214</v>
       </c>
       <c r="D168" t="n">
-        <v>8872.4</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1081.2</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>10162.6</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>4432.4</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -7254,22 +7254,22 @@
         <v>215</v>
       </c>
       <c r="D169" t="n">
-        <v>7265.4</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>329.4</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>6049.2</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>245.5</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>3.616</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7289,16 +7289,16 @@
         <v>216</v>
       </c>
       <c r="D170" t="n">
-        <v>107.8</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>887.6</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>2508.4</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7324,28 +7324,28 @@
         <v>217</v>
       </c>
       <c r="D171" t="n">
-        <v>131772</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>34555.3</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>31667.6</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>28217</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>277.083</v>
+        <v>309.496</v>
       </c>
       <c r="I171" t="n">
-        <v>87.981</v>
+        <v>60.458</v>
       </c>
       <c r="J171" t="n">
-        <v>76.035</v>
+        <v>89.47</v>
       </c>
       <c r="K171" t="n">
-        <v>70.696</v>
+        <v>70.979</v>
       </c>
     </row>
     <row r="172">
@@ -7359,28 +7359,28 @@
         <v>218</v>
       </c>
       <c r="D172" t="n">
-        <v>89200.4</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>50495.7</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>3645</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>10417.9</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>157.907</v>
+        <v>180.598</v>
       </c>
       <c r="I172" t="n">
-        <v>110.389</v>
+        <v>104.414</v>
       </c>
       <c r="J172" t="n">
-        <v>9.928</v>
+        <v>28.627</v>
       </c>
       <c r="K172" t="n">
-        <v>15.912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7394,16 +7394,16 @@
         <v>219</v>
       </c>
       <c r="D173" t="n">
-        <v>1394.4</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>327.2</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>6177.2</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>3181.9</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.035</v>
+        <v>10.421</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -7429,28 +7429,28 @@
         <v>220</v>
       </c>
       <c r="D174" t="n">
-        <v>52209.2</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>8097.4</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>39254.4</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>41961.5</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>88.639</v>
+        <v>110.805</v>
       </c>
       <c r="I174" t="n">
-        <v>20.1</v>
+        <v>9.312</v>
       </c>
       <c r="J174" t="n">
-        <v>73.964</v>
+        <v>84.175</v>
       </c>
       <c r="K174" t="n">
-        <v>87.397</v>
+        <v>88.542</v>
       </c>
     </row>
     <row r="175">
@@ -7464,22 +7464,22 @@
         <v>221</v>
       </c>
       <c r="D175" t="n">
-        <v>1539.4</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>63.7</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>718.8</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>42.4</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>7.063</v>
+        <v>14.704</v>
       </c>
       <c r="I175" t="n">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -7499,28 +7499,28 @@
         <v>222</v>
       </c>
       <c r="D176" t="n">
-        <v>10675.3</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>63236.2</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>9071.2</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>65813.6</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>26.794</v>
+        <v>12.541</v>
       </c>
       <c r="I176" t="n">
-        <v>217.082</v>
+        <v>239.679</v>
       </c>
       <c r="J176" t="n">
-        <v>23.116</v>
+        <v>23.48</v>
       </c>
       <c r="K176" t="n">
-        <v>202.923</v>
+        <v>256.776</v>
       </c>
     </row>
     <row r="177">
@@ -7537,13 +7537,13 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>106.2</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>2620.9</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>0.494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7569,28 +7569,28 @@
         <v>224</v>
       </c>
       <c r="D178" t="n">
-        <v>23660.6</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>19084.1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>3036.5</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>63.074</v>
+        <v>147.674</v>
       </c>
       <c r="I178" t="n">
-        <v>41.26</v>
+        <v>54.794</v>
       </c>
       <c r="J178" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>4.794</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="179">
@@ -7604,28 +7604,28 @@
         <v>226</v>
       </c>
       <c r="D179" t="n">
-        <v>13149</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>17623.1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>145664.3</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>64588.5</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>29.61</v>
+        <v>10.019</v>
       </c>
       <c r="I179" t="n">
-        <v>23.424</v>
+        <v>18.227</v>
       </c>
       <c r="J179" t="n">
-        <v>174.278</v>
+        <v>200.856</v>
       </c>
       <c r="K179" t="n">
-        <v>52.903</v>
+        <v>51.921</v>
       </c>
     </row>
     <row r="180">
@@ -7639,28 +7639,28 @@
         <v>227</v>
       </c>
       <c r="D180" t="n">
-        <v>32116.2</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>45674.7</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>39471.4</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>34849.4</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>74.386</v>
+        <v>105.228</v>
       </c>
       <c r="I180" t="n">
-        <v>105.283</v>
+        <v>127.718</v>
       </c>
       <c r="J180" t="n">
-        <v>75.87</v>
+        <v>93.975</v>
       </c>
       <c r="K180" t="n">
-        <v>69.733</v>
+        <v>45.251</v>
       </c>
     </row>
     <row r="181">
@@ -7674,28 +7674,28 @@
         <v>228</v>
       </c>
       <c r="D181" t="n">
-        <v>2938.4</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1029.8</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>22369.3</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>6742.4</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>2.986</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>46.648</v>
+        <v>55.983</v>
       </c>
       <c r="K181" t="n">
-        <v>19.617</v>
+        <v>6.366</v>
       </c>
     </row>
     <row r="182">
@@ -7709,28 +7709,28 @@
         <v>229</v>
       </c>
       <c r="D182" t="n">
-        <v>2856.4</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>3428.9</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>42306.1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>30878.3</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>7.63</v>
+        <v>10.624</v>
       </c>
       <c r="I182" t="n">
-        <v>3.182</v>
+        <v>3.253</v>
       </c>
       <c r="J182" t="n">
-        <v>56.914</v>
+        <v>77.806</v>
       </c>
       <c r="K182" t="n">
-        <v>21.934</v>
+        <v>19.269</v>
       </c>
     </row>
     <row r="183">
@@ -7744,25 +7744,25 @@
         <v>230</v>
       </c>
       <c r="D183" t="n">
-        <v>233.4</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>698.1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>0.843</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>3.198</v>
+        <v>6.906</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7779,28 +7779,28 @@
         <v>231</v>
       </c>
       <c r="D184" t="n">
-        <v>14642.3</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>11106.6</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>37723.2</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>20625.6</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>31.945</v>
+        <v>39.959</v>
       </c>
       <c r="I184" t="n">
-        <v>41.174</v>
+        <v>68.453</v>
       </c>
       <c r="J184" t="n">
-        <v>70.567</v>
+        <v>109.559</v>
       </c>
       <c r="K184" t="n">
-        <v>63.327</v>
+        <v>37.787</v>
       </c>
     </row>
     <row r="185">
@@ -7814,7 +7814,7 @@
         <v>233</v>
       </c>
       <c r="D185" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -7849,19 +7849,19 @@
         <v>234</v>
       </c>
       <c r="D186" t="n">
-        <v>166282.6</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>80.3</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>3596.9</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>63.5</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0.05</v>
+        <v>1.78</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -7884,10 +7884,10 @@
         <v>235</v>
       </c>
       <c r="D187" t="n">
-        <v>48147.2</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>153.5</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0.12</v>
+        <v>6.17</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -7919,13 +7919,13 @@
         <v>236</v>
       </c>
       <c r="D188" t="n">
-        <v>130496.1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>290.4</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -7954,7 +7954,7 @@
         <v>237</v>
       </c>
       <c r="D189" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -7989,19 +7989,19 @@
         <v>238</v>
       </c>
       <c r="D190" t="n">
-        <v>126696</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>420.3</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>0.101</v>
+        <v>1.228</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -8024,25 +8024,25 @@
         <v>239</v>
       </c>
       <c r="D191" t="n">
-        <v>241938.9</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>3610.5</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0.757</v>
+        <v>2.978</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -8059,7 +8059,7 @@
         <v>240</v>
       </c>
       <c r="D192" t="n">
-        <v>67657.4</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>105.176</v>
+        <v>144.176</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>241</v>
       </c>
       <c r="D193" t="n">
-        <v>1767.1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>5.225</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -8170,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>31.6</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>79.7</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8199,13 +8199,13 @@
         <v>245</v>
       </c>
       <c r="D196" t="n">
-        <v>2214.8</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>1995.3</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -8234,28 +8234,28 @@
         <v>246</v>
       </c>
       <c r="D197" t="n">
-        <v>201887.4</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>4966.7</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>67947.5</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>9713.4</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>238.346</v>
+        <v>284.764</v>
       </c>
       <c r="I197" t="n">
-        <v>11.5</v>
+        <v>6.161</v>
       </c>
       <c r="J197" t="n">
-        <v>149.03</v>
+        <v>179.349</v>
       </c>
       <c r="K197" t="n">
-        <v>27.448</v>
+        <v>9.877</v>
       </c>
     </row>
     <row r="198">
@@ -8269,25 +8269,25 @@
         <v>247</v>
       </c>
       <c r="D198" t="n">
-        <v>14017.4</v>
+        <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>503</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>427.2</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1.834</v>
+        <v>16.234</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -8304,25 +8304,25 @@
         <v>248</v>
       </c>
       <c r="D199" t="n">
-        <v>59028.7</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1922.3</v>
+        <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>106.462</v>
+        <v>145.078</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8339,25 +8339,25 @@
         <v>249</v>
       </c>
       <c r="D200" t="n">
-        <v>83057.3</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>4703.1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>362.5</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>95.8</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>237.998</v>
+        <v>334.856</v>
       </c>
       <c r="I200" t="n">
-        <v>3.592</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.486</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -8374,13 +8374,13 @@
         <v>250</v>
       </c>
       <c r="D201" t="n">
-        <v>230.8</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>77.5</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -8409,28 +8409,28 @@
         <v>251</v>
       </c>
       <c r="D202" t="n">
-        <v>117523.1</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>341.8</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>5503.7</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>233.69</v>
+        <v>312.902</v>
       </c>
       <c r="I202" t="n">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>7.518</v>
+        <v>1.401</v>
       </c>
       <c r="K202" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -8444,10 +8444,10 @@
         <v>252</v>
       </c>
       <c r="D203" t="n">
-        <v>27359.6</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>3113.6</v>
+        <v>0</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -8456,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>113.918</v>
+        <v>250.5</v>
       </c>
       <c r="I203" t="n">
-        <v>12.686</v>
+        <v>7.43</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>253</v>
       </c>
       <c r="D204" t="n">
-        <v>506.5</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>2.011</v>
+        <v>7.05</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8514,28 +8514,28 @@
         <v>254</v>
       </c>
       <c r="D205" t="n">
-        <v>31701.5</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>62780.2</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>43131.4</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>32.724</v>
+        <v>17.132</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>118.518</v>
+        <v>138.701</v>
       </c>
       <c r="K205" t="n">
-        <v>53.828</v>
+        <v>12.523</v>
       </c>
     </row>
     <row r="206">
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>789.8</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8584,25 +8584,25 @@
         <v>256</v>
       </c>
       <c r="D207" t="n">
-        <v>72627.9</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>12093.6</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>2791.5</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>98.967</v>
+        <v>114.139</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>27.041</v>
+        <v>27.929</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -8619,28 +8619,28 @@
         <v>258</v>
       </c>
       <c r="D208" t="n">
-        <v>74113.2</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>16148.3</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1796.6</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>6669</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>235.788</v>
+        <v>377.041</v>
       </c>
       <c r="I208" t="n">
-        <v>55.192</v>
+        <v>56.829</v>
       </c>
       <c r="J208" t="n">
-        <v>6.424</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>27.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8654,28 +8654,28 @@
         <v>259</v>
       </c>
       <c r="D209" t="n">
-        <v>53518.9</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>109736.9</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>33906.2</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>61683.6</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>164.549</v>
+        <v>210.768</v>
       </c>
       <c r="I209" t="n">
-        <v>346.765</v>
+        <v>421.474</v>
       </c>
       <c r="J209" t="n">
-        <v>54.961</v>
+        <v>41.8</v>
       </c>
       <c r="K209" t="n">
-        <v>142.686</v>
+        <v>78.333</v>
       </c>
     </row>
     <row r="210">
@@ -8689,28 +8689,28 @@
         <v>260</v>
       </c>
       <c r="D210" t="n">
-        <v>954.6</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>520.1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>426.9</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>0.908</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>0.972</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>0.528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -8724,28 +8724,28 @@
         <v>261</v>
       </c>
       <c r="D211" t="n">
-        <v>69899.4</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>21978.4</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1920.6</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1277.9</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>275.601</v>
+        <v>424.618</v>
       </c>
       <c r="I211" t="n">
-        <v>90.47</v>
+        <v>62.357</v>
       </c>
       <c r="J211" t="n">
-        <v>5.331</v>
+        <v>1.005</v>
       </c>
       <c r="K211" t="n">
-        <v>4.021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -8759,28 +8759,28 @@
         <v>262</v>
       </c>
       <c r="D212" t="n">
-        <v>39567.6</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>19931.1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>121650.4</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>32991</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>93.24</v>
+        <v>150.793</v>
       </c>
       <c r="I212" t="n">
-        <v>42.393</v>
+        <v>24.185</v>
       </c>
       <c r="J212" t="n">
-        <v>113.106</v>
+        <v>133.864</v>
       </c>
       <c r="K212" t="n">
-        <v>30.764</v>
+        <v>22.662</v>
       </c>
     </row>
     <row r="213">
@@ -8794,28 +8794,28 @@
         <v>263</v>
       </c>
       <c r="D213" t="n">
-        <v>5152.7</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>1555.2</v>
+        <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>4429.8</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>1701.8</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>16.56</v>
+        <v>7.141</v>
       </c>
       <c r="I213" t="n">
-        <v>6.06</v>
+        <v>9.033</v>
       </c>
       <c r="J213" t="n">
-        <v>10.612</v>
+        <v>20.725</v>
       </c>
       <c r="K213" t="n">
-        <v>4.337</v>
+        <v>1.398</v>
       </c>
     </row>
     <row r="214">
@@ -8829,28 +8829,28 @@
         <v>265</v>
       </c>
       <c r="D214" t="n">
-        <v>220362.3</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>1167.6</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>49770</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>2626.2</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>215.313</v>
+        <v>250.163</v>
       </c>
       <c r="I214" t="n">
-        <v>2.161</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>50.96</v>
+        <v>20.928</v>
       </c>
       <c r="K214" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -8864,28 +8864,28 @@
         <v>266</v>
       </c>
       <c r="D215" t="n">
-        <v>300460.9</v>
+        <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>1681.6</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>68344.8</v>
+        <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>5821.2</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>422.176</v>
+        <v>487.065</v>
       </c>
       <c r="I215" t="n">
-        <v>2.712</v>
+        <v>4.85</v>
       </c>
       <c r="J215" t="n">
-        <v>134.692</v>
+        <v>122.957</v>
       </c>
       <c r="K215" t="n">
-        <v>14.49</v>
+        <v>3.395</v>
       </c>
     </row>
     <row r="216">
@@ -8905,10 +8905,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>960.7</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1582.7</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>356.4</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>322.9</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8969,25 +8969,25 @@
         <v>269</v>
       </c>
       <c r="D218" t="n">
-        <v>316514.8</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>5593.4</v>
+        <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>2897.7</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>357.7</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>673.341</v>
+        <v>679.304</v>
       </c>
       <c r="I218" t="n">
-        <v>15.679</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>4.231</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -9004,19 +9004,19 @@
         <v>270</v>
       </c>
       <c r="D219" t="n">
-        <v>924.3</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>70.6</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>215.3</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>11.656</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -9039,28 +9039,28 @@
         <v>271</v>
       </c>
       <c r="D220" t="n">
-        <v>415939.1</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>193.3</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>163348.7</v>
+        <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>3067.4</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>645.602</v>
+        <v>726.879</v>
       </c>
       <c r="I220" t="n">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>342.132</v>
+        <v>318.807</v>
       </c>
       <c r="K220" t="n">
-        <v>5.541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -9074,25 +9074,25 @@
         <v>272</v>
       </c>
       <c r="D221" t="n">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>5571.7</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>361.7</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>5.302</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>4.602</v>
+        <v>13.787</v>
       </c>
       <c r="K221" t="n">
         <v>0</v>
@@ -9109,28 +9109,28 @@
         <v>273</v>
       </c>
       <c r="D222" t="n">
-        <v>424714.9</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>8867.2</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>195407.5</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>29390.6</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>433.654</v>
+        <v>471.822</v>
       </c>
       <c r="I222" t="n">
-        <v>5.402</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>225.248</v>
+        <v>230.353</v>
       </c>
       <c r="K222" t="n">
-        <v>29.399</v>
+        <v>3.656</v>
       </c>
     </row>
     <row r="223">
@@ -9144,28 +9144,28 @@
         <v>274</v>
       </c>
       <c r="D223" t="n">
-        <v>248195</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>162.4</v>
+        <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>33749.7</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>229.782</v>
+        <v>258.705</v>
       </c>
       <c r="I223" t="n">
-        <v>0.426</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>29.667</v>
+        <v>15.785</v>
       </c>
       <c r="K223" t="n">
-        <v>0.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -9179,7 +9179,7 @@
         <v>276</v>
       </c>
       <c r="D224" t="n">
-        <v>26899.6</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>68.033</v>
+        <v>185.284</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -9214,25 +9214,25 @@
         <v>277</v>
       </c>
       <c r="D225" t="n">
-        <v>85041.5</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>200.948</v>
+        <v>263.539</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -9249,25 +9249,25 @@
         <v>278</v>
       </c>
       <c r="D226" t="n">
-        <v>39528.5</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>116.9</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>137.7</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>129</v>
+        <v>267.616</v>
       </c>
       <c r="I226" t="n">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>279</v>
       </c>
       <c r="D227" t="n">
-        <v>1564.7</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>5.914</v>
+        <v>10.838</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -9319,10 +9319,10 @@
         <v>280</v>
       </c>
       <c r="D228" t="n">
-        <v>131571.1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>153.1</v>
+        <v>0</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -9331,10 +9331,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>370.994</v>
+        <v>434.082</v>
       </c>
       <c r="I228" t="n">
-        <v>1.361</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>281</v>
       </c>
       <c r="D229" t="n">
-        <v>269.7</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -9389,19 +9389,19 @@
         <v>282</v>
       </c>
       <c r="D230" t="n">
-        <v>42836.1</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>525.4</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>73.1</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>139.76</v>
+        <v>152.59</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>283</v>
       </c>
       <c r="D231" t="n">
-        <v>78019.4</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>182.705</v>
+        <v>262.805</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -9459,10 +9459,10 @@
         <v>284</v>
       </c>
       <c r="D232" t="n">
-        <v>57990.8</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>121.1</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -9471,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>158.258</v>
+        <v>284.253</v>
       </c>
       <c r="I232" t="n">
-        <v>1.059</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -9494,25 +9494,25 @@
         <v>285</v>
       </c>
       <c r="D233" t="n">
-        <v>34196.2</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>128.4</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>74.15</v>
+        <v>140.92</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>286</v>
       </c>
       <c r="D234" t="n">
-        <v>779.4</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.497</v>
+        <v>11.525</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>288</v>
       </c>
       <c r="D235" t="n">
-        <v>9587.9</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>57.038</v>
+        <v>165.143</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>289</v>
       </c>
       <c r="D236" t="n">
-        <v>29012.2</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>106.464</v>
+        <v>287.879</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>4.393</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>291</v>
       </c>
       <c r="D238" t="n">
-        <v>41807.2</v>
+        <v>0</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>128.202</v>
+        <v>224.017</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>292</v>
       </c>
       <c r="D239" t="n">
-        <v>44412.7</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>158.595</v>
+        <v>251.667</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>293</v>
       </c>
       <c r="D240" t="n">
-        <v>48875.2</v>
+        <v>0</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>106.16</v>
+        <v>214.047</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>294</v>
       </c>
       <c r="D241" t="n">
-        <v>4661.8</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>11.95</v>
+        <v>52.626</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_democratic_republic_of_the_congo.xlsx
+++ b/public/data/soil/soil_table_democratic_republic_of_the_congo.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1409,13 +1409,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6964</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1567.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>232.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>308.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>409.2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2068.6</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1514,13 +1514,13 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2692.9</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>822.4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1676.5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16164.9</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>124.1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1710.7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>198.7</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1724,13 +1724,13 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1951.2</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5582.3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>635.3</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>462.2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1070.3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1581.3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1225.8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4299.2</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>68.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>251.9</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1203.4</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2074,13 +2074,13 @@
         <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7566.7</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>16422.3</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2109,16 +2109,16 @@
         <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2314.6</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28472.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>9544.5</v>
       </c>
       <c r="H22" t="n">
         <v>202.43</v>
@@ -2144,13 +2144,13 @@
         <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>13000.7</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7835</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>803.5</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4038.2</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2507</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2249,13 +2249,13 @@
         <v>57</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6388.2</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5878.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>58</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3409.5</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5002.6</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3758</v>
       </c>
       <c r="H27" t="n">
         <v>287.525</v>
@@ -2319,16 +2319,16 @@
         <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>20672.9</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>41191.2</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8254.7</v>
       </c>
       <c r="H28" t="n">
         <v>532.554</v>
@@ -2354,13 +2354,13 @@
         <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>15368.1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3791</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2389,16 +2389,16 @@
         <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>26287.5</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>36545</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>304.5</v>
       </c>
       <c r="H30" t="n">
         <v>560.658</v>
@@ -2424,7 +2424,7 @@
         <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93832.8</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>52761.6</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1625.6</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63146.8</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>67</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>21806.5</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>35055.6</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>732.7</v>
       </c>
       <c r="H35" t="n">
         <v>722.157</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>70</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>576.2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13027.4</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>155.7</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2704,13 +2704,13 @@
         <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>58826.2</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>73</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>224.4</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>74</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>268.2</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>227.9</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3893.4</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>76</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>882.7</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>78</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3716.3</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10581.3</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         <v>79</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1899.5</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1749.2</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2596.7</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3019,16 +3019,16 @@
         <v>82</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>5873.2</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>176666.9</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>858.7</v>
       </c>
       <c r="H48" t="n">
         <v>13.237</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2325.9</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3970.7</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3124,16 +3124,16 @@
         <v>85</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>17843.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>24321.2</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>17578.6</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>22049.8</v>
       </c>
       <c r="H51" t="n">
         <v>270.283</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2723.8</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3194,16 +3194,16 @@
         <v>87</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>13148.7</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>9759</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>26190.5</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>32127.1</v>
       </c>
       <c r="H53" t="n">
         <v>179.202</v>
@@ -3229,16 +3229,16 @@
         <v>88</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>14954.9</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>3742.2</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>59711.4</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>18693.5</v>
       </c>
       <c r="H54" t="n">
         <v>35.43</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1442.6</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>90</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>20090.1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1395.7</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>93</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>49745.9</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>94</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>98588.4</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>95</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>57160.7</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>35576.7</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>97</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>30542.5</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>11657.2</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>99</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2969.6</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>101</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>44851.4</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3649,13 +3649,13 @@
         <v>102</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>32058.4</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3335.3</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2052.3</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>104</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>55753.2</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>105</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>6867.4</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>106</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>45017.8</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>107</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1729.5</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>108</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>52291.4</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>6724.6</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>109</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1598.6</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>111</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>23291.6</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>63700.8</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>113</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>7069.1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>114</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>71212.7</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>115</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>24077.1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>116</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>77201.6</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>118</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1885.3</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -4209,13 +4209,13 @@
         <v>119</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>35390.4</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4774.7</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>121</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>628.5</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -4285,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>501.9</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1200.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>123</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>738.1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>124</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>29675.1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>125</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>458.9</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4419,13 +4419,13 @@
         <v>126</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>3506.3</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>336.3</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4454,13 +4454,13 @@
         <v>127</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>18765.6</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>15245.9</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>522.5</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4524,13 +4524,13 @@
         <v>129</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>37980.4</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>11592.6</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>130</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>31618.4</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>432.3</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2886.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4629,13 +4629,13 @@
         <v>132</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>49979.3</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>23552.6</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>133</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>363.9</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4699,16 +4699,16 @@
         <v>134</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>12199.3</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>22820</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>12241.3</v>
       </c>
       <c r="H96" t="n">
         <v>33.898</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>467.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4769,16 +4769,16 @@
         <v>136</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>48579.5</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>23388.7</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2886.6</v>
       </c>
       <c r="H98" t="n">
         <v>150.173</v>
@@ -4804,16 +4804,16 @@
         <v>137</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>28326.4</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>44520</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1583.9</v>
       </c>
       <c r="H99" t="n">
         <v>111.081</v>
@@ -4839,13 +4839,13 @@
         <v>138</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>16762.2</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>139</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>162.9</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4909,13 +4909,13 @@
         <v>141</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>68731.3</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1146.3</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>142</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>7804.2</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -5014,13 +5014,13 @@
         <v>144</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>24017.4</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>10215</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>145</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>317.1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5084,13 +5084,13 @@
         <v>146</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>80424.9</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>114.8</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>147</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>701.6</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>148</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>15419.2</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         <v>150</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>97620.9</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1455.8</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>151</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>9770.9</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -5259,13 +5259,13 @@
         <v>152</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>135137.8</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>585.8</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>153</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>154</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1045.4</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -5364,13 +5364,13 @@
         <v>155</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>78199.6</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>69832.5</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>156</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>939.3</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5434,13 +5434,13 @@
         <v>157</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>157449.3</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>48129.2</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1013.2</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>159</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1621.1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>160</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>673.3</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         <v>161</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>96702.6</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>162</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1190.2</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -5644,7 +5644,7 @@
         <v>164</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>95952.6</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>165</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>905.3</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>166</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>24709.8</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>167</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>78625.8</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>168</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>169</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>99850.1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>170</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>3949.7</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>171</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>107516.7</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>172</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2145.6</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -5959,13 +5959,13 @@
         <v>174</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>14247.8</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>175</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>7488.4</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>176</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>307.8</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>308.8</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -6099,16 +6099,16 @@
         <v>178</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>5788.1</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2025.9</v>
       </c>
       <c r="H136" t="n">
         <v>236.389</v>
@@ -6134,13 +6134,13 @@
         <v>179</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>3685.3</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>2198.4</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -6169,13 +6169,13 @@
         <v>180</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>13429.1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>137.8</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>182</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>15914</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>183</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>647.4</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>184</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>9094.2</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>185</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>186</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>956.9</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -6379,7 +6379,7 @@
         <v>187</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>57421</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -6414,13 +6414,13 @@
         <v>188</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>38604.6</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>112.9</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>189</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>22107.5</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>190</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>369.8</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>191</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>28456.8</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>192</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>14112.4</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>717.4</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6589,10 +6589,10 @@
         <v>194</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>25675</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>5005.1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -6624,10 +6624,10 @@
         <v>195</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>16422.6</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>333.1</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>196</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -6694,10 +6694,10 @@
         <v>197</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>38296.2</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>13177.6</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>198</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -6764,10 +6764,10 @@
         <v>199</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>39742.5</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>251.7</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>200</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>201</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>4998.3</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>202</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>327.2</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6939,10 +6939,10 @@
         <v>204</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>2826.5</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>205</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>6016.7</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>206</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>208</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>13292.1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -7079,16 +7079,16 @@
         <v>209</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>105726.9</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>14480</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1885.7</v>
       </c>
       <c r="H164" t="n">
         <v>518.478</v>
@@ -7114,7 +7114,7 @@
         <v>210</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>825.5</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -7149,10 +7149,10 @@
         <v>211</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>48485.2</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>3647.8</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -7184,7 +7184,7 @@
         <v>212</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>943.9</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -7219,16 +7219,16 @@
         <v>214</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>2024.1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>3449.3</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1127.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7254,13 +7254,13 @@
         <v>215</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>3307</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>3147.7</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>294.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7324,16 +7324,16 @@
         <v>217</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>48431.2</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>8815.9</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>14976.6</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>19472.2</v>
       </c>
       <c r="H171" t="n">
         <v>309.496</v>
@@ -7359,16 +7359,16 @@
         <v>218</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>25659.5</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>21313.3</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>301.8</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>2448.9</v>
       </c>
       <c r="H172" t="n">
         <v>180.598</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>3681.5</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>3734.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7429,16 +7429,16 @@
         <v>220</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>49187.5</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1590.2</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>32842.8</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>32102.3</v>
       </c>
       <c r="H174" t="n">
         <v>110.805</v>
@@ -7464,7 +7464,7 @@
         <v>221</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1251.4</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -7499,16 +7499,16 @@
         <v>222</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>10547.6</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>36048.4</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>9229.3</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>51118.4</v>
       </c>
       <c r="H176" t="n">
         <v>12.541</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>2139.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7569,16 +7569,16 @@
         <v>224</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>3034.5</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>7570.9</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1554.5</v>
       </c>
       <c r="H178" t="n">
         <v>147.674</v>
@@ -7604,16 +7604,16 @@
         <v>226</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>174.7</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>9556.2</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2128.6</v>
       </c>
       <c r="H179" t="n">
         <v>10.019</v>
@@ -7639,16 +7639,16 @@
         <v>227</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>11378.7</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>19475.2</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>5995.9</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2709.2</v>
       </c>
       <c r="H180" t="n">
         <v>105.228</v>
@@ -7680,10 +7680,10 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>6925.9</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1348.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7709,16 +7709,16 @@
         <v>229</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>2076.3</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>16821.3</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2032.2</v>
       </c>
       <c r="H182" t="n">
         <v>10.624</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>484.2</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -7779,16 +7779,16 @@
         <v>231</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>3596.3</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>2955.6</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>10255.8</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>3537.1</v>
       </c>
       <c r="H184" t="n">
         <v>39.959</v>
@@ -7849,7 +7849,7 @@
         <v>234</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>33914.1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>235</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>8414.5</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -7919,7 +7919,7 @@
         <v>236</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>23531.1</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -7954,7 +7954,7 @@
         <v>237</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>238</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>2104.2</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>239</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>42708.4</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -8059,7 +8059,7 @@
         <v>240</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>7964.5</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>241</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>183.5</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>908.4</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>731.4</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -8234,16 +8234,16 @@
         <v>246</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>29321.6</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>17763.2</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1353.1</v>
       </c>
       <c r="H197" t="n">
         <v>284.764</v>
@@ -8269,7 +8269,7 @@
         <v>247</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>8457.1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>294.9</v>
       </c>
       <c r="H198" t="n">
         <v>16.234</v>
@@ -8304,13 +8304,13 @@
         <v>248</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>31421</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>731.4</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>249</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>29283.1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>250</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>709.7</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -8409,13 +8409,13 @@
         <v>251</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>33336.2</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -8444,10 +8444,10 @@
         <v>252</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>4749.1</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>433.1</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>253</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -8514,16 +8514,16 @@
         <v>254</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1125.8</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>45974.6</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>39072.8</v>
       </c>
       <c r="H205" t="n">
         <v>17.132</v>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8584,16 +8584,16 @@
         <v>256</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>25718.3</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>10086.4</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>6094.5</v>
       </c>
       <c r="H207" t="n">
         <v>114.139</v>
@@ -8619,10 +8619,10 @@
         <v>258</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>51616.1</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>14969.1</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -8654,16 +8654,16 @@
         <v>259</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>31498.5</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>67443.3</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>4242</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>8666.8</v>
       </c>
       <c r="H209" t="n">
         <v>210.768</v>
@@ -8689,7 +8689,7 @@
         <v>260</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>2213.9</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -8724,10 +8724,10 @@
         <v>261</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>42885.1</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>13504.7</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -8759,16 +8759,16 @@
         <v>262</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>15124</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>6121.3</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>7717.2</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="H212" t="n">
         <v>150.793</v>
@@ -8794,13 +8794,13 @@
         <v>263</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1755.4</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>533.6</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>3946.6</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -8829,13 +8829,13 @@
         <v>265</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>31603.3</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>4584.9</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -8864,16 +8864,16 @@
         <v>266</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>17519.4</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>25360.1</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1810.6</v>
       </c>
       <c r="H215" t="n">
         <v>487.065</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>2756.3</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>3574.1</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>269</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>78774.2</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>270</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>2985.2</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
@@ -9039,13 +9039,13 @@
         <v>271</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>29229.6</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>31714.6</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>2398.8</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>273</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>35750.9</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>82033.2</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="H222" t="n">
         <v>471.822</v>
@@ -9144,13 +9144,13 @@
         <v>274</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>22726.3</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>276</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>2358.3</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>277</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>9287.3</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>278</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>9526.1</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
@@ -9284,7 +9284,7 @@
         <v>279</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>78.9</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>280</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>13222.7</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>281</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>282</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>21365.8</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>283</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>4523.7</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -9459,7 +9459,7 @@
         <v>284</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>13131.8</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>285</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>5701.2</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>286</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>630.7</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>288</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>2169.1</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>289</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>3373.2</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>291</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1034.3</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>292</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>4207.9</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>293</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>239.2</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>294</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>668.4</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
